--- a/biology/Zoologie/Actinopteri/Actinopteri.xlsx
+++ b/biology/Zoologie/Actinopteri/Actinopteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinoptères
 La classe des actinoptères (Actinopteri) rassemble la quasi-totalité des poissons à nageoires rayonnées actuels. Ce clade est en rivalité, suivant les sources, avec son synonyme Actinopterygii.
@@ -513,14 +525,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les caractères propres sont :
 Sacs aériens (ou vessie gazeuse) connectés dorsalement au tube digestif (connexion perdue secondairement chez certains téléostéens).
 Écailles transformées en « fulcres » sur l'arête antérieure de chaque nageoire.
 Présence d'un nouvel os dans la mandibule inférieure le « supra-angulaire ».
 Toutes les nageoires sont rayonnées, contrairement aux cladistiens (nageoires avant charnues) et aux sarcoptérygiens (toutes nageoires charnues). Elles sont membraneuses entre les rayons osseux, articulés et parallèles, et peuvent donc se plier car ces rayons sont contrôlés par des muscles.
-Dans le sang, les hématies sont nucléées, contrairement aux hématies des mammifères et donc de l'Homme[1].</t>
+Dans le sang, les hématies sont nucléées, contrairement aux hématies des mammifères et donc de l'Homme.</t>
         </is>
       </c>
     </row>
@@ -548,10 +562,12 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe des actinoptérygiens comporte 46 ordres actuels, largement dominés par celui des Perciformes, qui regroupe à lui seul 40 % des espèces de poissons connues[2].
-Selon World Register of Marine Species                               (7 août 2015)[2] (qui ne reconnaît pas les sous-classes, issues d'ITIS) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe des actinoptérygiens comporte 46 ordres actuels, largement dominés par celui des Perciformes, qui regroupe à lui seul 40 % des espèces de poissons connues.
+Selon World Register of Marine Species                               (7 août 2015) (qui ne reconnaît pas les sous-classes, issues d'ITIS) :
 sous-classe Chondrostei
 ordre Acipenseriformes -- Esturgeons et apparentés
 ordre Polypteriformes -- Poissons pulmonés (Afrique)
